--- a/Firmware/Sense Plots/current_sensor_tune.xlsx
+++ b/Firmware/Sense Plots/current_sensor_tune.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\MIL\Navigator SVN\Current Projects\mil_battery_current_sensor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rosem\Documents\MIL\Git\Power Sensor\Firmware\Sense Plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9FC67A-6B6D-4C5E-ABE8-B871053B868C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3423AA7-52EE-40B7-A1F9-1FFA451750A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8760" windowHeight="4980" activeTab="1" xr2:uid="{40077B08-2236-48EB-8B49-22EADB41D56B}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" activeTab="2" xr2:uid="{40077B08-2236-48EB-8B49-22EADB41D56B}"/>
   </bookViews>
   <sheets>
     <sheet name="old" sheetId="1" r:id="rId1"/>
     <sheet name="new" sheetId="2" r:id="rId2"/>
+    <sheet name="11-12-2019" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Input Current (A)</t>
   </si>
@@ -40,6 +42,9 @@
   </si>
   <si>
     <t>Output Voltage (V)</t>
+  </si>
+  <si>
+    <t>ADC Count</t>
   </si>
 </sst>
 </file>
@@ -400,14 +405,14 @@
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,7 +435,7 @@
         <v>1.5900000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.5</v>
       </c>
@@ -442,7 +447,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -454,7 +459,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1.5</v>
       </c>
@@ -466,7 +471,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -478,7 +483,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2.5</v>
       </c>
@@ -490,7 +495,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -502,7 +507,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>3.5</v>
       </c>
@@ -514,7 +519,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -526,7 +531,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4.5</v>
       </c>
@@ -538,7 +543,7 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5</v>
       </c>
@@ -550,7 +555,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5.5</v>
       </c>
@@ -562,7 +567,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>6</v>
       </c>
@@ -574,7 +579,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>6.5</v>
       </c>
@@ -586,7 +591,7 @@
         <v>0.23799999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>7</v>
       </c>
@@ -598,7 +603,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>7.5</v>
       </c>
@@ -610,7 +615,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>8</v>
       </c>
@@ -622,7 +627,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>8.5</v>
       </c>
@@ -634,7 +639,7 @@
         <v>0.309</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>9</v>
       </c>
@@ -646,7 +651,7 @@
         <v>0.32700000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>9.5</v>
       </c>
@@ -658,7 +663,7 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -679,18 +684,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9812A466-8297-42E2-84CC-9823B8D98344}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A14" zoomScale="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -713,7 +718,7 @@
         <v>1.98102556E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -725,7 +730,7 @@
         <v>1.9819781200000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -737,7 +742,7 @@
         <v>1.9854212199999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -749,7 +754,7 @@
         <v>1.9969230500000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -761,7 +766,7 @@
         <v>2.0396336899999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4.5</v>
       </c>
@@ -773,7 +778,7 @@
         <v>2.13406589E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -785,7 +790,7 @@
         <v>2.3428570499999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5.5</v>
       </c>
@@ -797,7 +802,7 @@
         <v>2.5626372500000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -809,7 +814,7 @@
         <v>2.7882784599999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6.5</v>
       </c>
@@ -821,7 +826,7 @@
         <v>3.0358973899999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -833,7 +838,7 @@
         <v>3.2776556900000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>7.5</v>
       </c>
@@ -845,7 +850,7 @@
         <v>3.5157509099999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -857,7 +862,7 @@
         <v>3.7538461400000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>8.5</v>
       </c>
@@ -869,7 +874,7 @@
         <v>3.9963368300000003E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>9</v>
       </c>
@@ -881,7 +886,7 @@
         <v>4.2410254500000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>9.5</v>
       </c>
@@ -893,7 +898,7 @@
         <v>4.4783882800000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10</v>
       </c>
@@ -905,7 +910,7 @@
         <v>4.7384612299999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>10.5</v>
       </c>
@@ -917,7 +922,7 @@
         <v>4.98095229E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>11</v>
       </c>
@@ -929,7 +934,7 @@
         <v>5.2366301400000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>11.5</v>
       </c>
@@ -941,7 +946,7 @@
         <v>5.4600734300000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>12</v>
       </c>
@@ -953,7 +958,7 @@
         <v>5.7164836699999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>12.5</v>
       </c>
@@ -965,7 +970,7 @@
         <v>5.9575092000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>13</v>
       </c>
@@ -977,25 +982,365 @@
         <v>6.2212452299999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF68B18A-E1C6-4887-84A4-A3210D4A5FAB}">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>26.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>26.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>35.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>41.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>47.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>53.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B13" s="1">
+        <v>66.167000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>72.159797699999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>78.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>84.198999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>121.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>152.80000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>184.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="B21" s="1">
+        <v>215.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>246.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>278.39999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
+        <v>309.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="B25" s="1">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1">
+        <v>372.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>404.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1">
+        <v>435.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>467.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1">
+        <v>498.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>529.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>592.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="B35" s="1">
+        <v>655.29999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1">
+        <v>687.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>718.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1">
+        <v>749.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>781.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1">
+        <v>812.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
